--- a/data/trans_dic/P16B12-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B12-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B12-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B12-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,17 +632,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -662,17 +662,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>56,18; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>71,42; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,64%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>81,49; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>72,79; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>90,51; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>95,34; 100</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>86,95; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>88,11; 100,0</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>87,87; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>96,02; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>96,52; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>89,3; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>96,18; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>96,32; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>92,04; 99,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>98,02; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>98,19; 100</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,45%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,76%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,37%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,79</t>
+          <t>95,38; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>98,7; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,04</t>
+          <t>97,27; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,42</t>
+          <t>92,39; 99,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>97,81; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>95,96; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>95,04; 99,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>98,87; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>97,9; 100,0</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,52%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,35%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>95,48; 99,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>99,16; 100</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>97,44; 100,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>93,89; 99,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>97,6; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>97,64; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>95,76; 98,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>98,61; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>98,08; 99,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B12-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B12-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1192,37 +1192,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>98,93%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>97,49%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>98,96%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>98,62%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>99,49%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>99,45%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>97,04%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>99,56%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>99,3%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>97,93%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>99,76%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>99,37%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>95,38; 100,0</t>
+          <t>96,96; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>98,7; 100</t>
+          <t>97,66; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>97,27; 100,0</t>
+          <t>93,62; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>92,39; 99,16</t>
+          <t>92,39; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>97,81; 100,0</t>
+          <t>92,68; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,96; 100,0</t>
+          <t>97,58; 100</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>95,04; 99,25</t>
+          <t>95,03; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>98,87; 100,0</t>
+          <t>97,93; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>97,9; 100,0</t>
+          <t>97,06; 100,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1302,37 +1302,37 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>99,33%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>98,74%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>97,72%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>99,35%</t>
+          <t>99,3%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>91,83; 100,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>97,1; 100</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>98,04; 100</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>88,08; 100,0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>98,26; 100</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>94,91; 100,0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>92,29; 99,26</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>98,9; 100</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>96,57; 100,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>97,99%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>99,18%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>97,48%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>99,33%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>99,52%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>97,72%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>99,63%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>99,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>95,48; 99,45</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>99,16; 100</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>97,44; 100,0</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>93,89; 99,02</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>97,6; 100,0</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>97,64; 100,0</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>95,76; 98,89</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>98,61; 100,0</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>98,08; 99,83</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16B12-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B12-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -905,7 +906,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>56,18; 100,0</t>
+          <t>56,53; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -935,7 +936,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>71,42; 100,0</t>
+          <t>71,15; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1025,7 +1026,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>81,49; 100,0</t>
+          <t>83,38; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1035,7 +1036,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>72,79; 100,0</t>
+          <t>78,21; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,12 +1051,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>86,95; 100,0</t>
+          <t>87,22; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88,11; 100,0</t>
+          <t>86,84; 100,0</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>87,87; 100,0</t>
+          <t>87,22; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1140,7 +1141,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>89,3; 100,0</t>
+          <t>88,29; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1155,7 +1156,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>92,04; 99,04</t>
+          <t>90,99; 99,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1245,17 +1246,17 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,62; 100,0</t>
+          <t>94,55; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>92,39; 100,0</t>
+          <t>91,08; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,68; 100,0</t>
+          <t>94,78; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,17 +1266,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>95,03; 100,0</t>
+          <t>95,8; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>97,93; 100,0</t>
+          <t>97,43; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>97,06; 100,0</t>
+          <t>97,22; 100,0</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1346,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>91,83; 100,0</t>
+          <t>91,9; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1360,7 +1361,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>88,08; 100,0</t>
+          <t>86,72; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1370,12 +1371,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,91; 100,0</t>
+          <t>93,04; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,29; 99,26</t>
+          <t>92,25; 99,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1385,7 +1386,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>96,57; 100,0</t>
+          <t>97,08; 100,0</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1456,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>95,48; 99,45</t>
+          <t>95,15; 99,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1465,37 +1466,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>97,44; 100,0</t>
+          <t>97,13; 100,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>93,89; 99,02</t>
+          <t>94,47; 99,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>97,6; 100,0</t>
+          <t>97,62; 100,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>97,64; 100,0</t>
+          <t>97,63; 100,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>95,76; 98,89</t>
+          <t>95,67; 98,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>98,61; 100,0</t>
+          <t>98,83; 100,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>98,08; 99,83</t>
+          <t>98,05; 99,83</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para la diabetes fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3036</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4901</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>224; 979</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>804; 1866</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>213; 932</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1688; 3036</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>224; 979</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3403; 4901</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>213; 932</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1781</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8690</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2036</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7761</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2764</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3817</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16452</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4766</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>407; 1781</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6887; 8690</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>862; 2002</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>877; 2036</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5957; 7761</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1537; 2764</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2122; 3817</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14506; 16452</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3309; 4766</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10309</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3904</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8790</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6169</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12124</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7479</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16478</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16028</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16268</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6403; 11327</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2489; 3904</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7143; 8790</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4539; 6169</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10365; 12124</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5927; 7479</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12448; 17496</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14242; 16028</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14554; 16268</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>23222</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22462</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>34364</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>17178</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20376</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>20647</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>42838</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>55011</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>21302; 23222</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>20521; 22462</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>29760; 35693</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15462; 17178</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>16821; 21507</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>18687; 20647</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>38518; 40401</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>38351; 43969</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>48923; 56340</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>44908</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>49708</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>60307</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>39570</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>52216</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>56392</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>84479</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>101924</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>116699</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>40776; 46749</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>47728; 49708</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>58209; 60307</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>35872; 40632</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>50219; 52216</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>54318; 56392</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>79512; 86540</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>99910; 101924</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>114589; 116699</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>56993</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>89826</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>88527</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>68420</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>84055</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>82621</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>125412</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>173880</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>171147</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>55261; 56993</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>87727; 89826</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>84601; 89482</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>63922; 70180</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>80511; 84941</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>80618; 82621</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>121828; 127172</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>170272; 174766</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>167323; 172102</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>41157</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>71749</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>83082</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>65717</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>118402</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>102128</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>106873</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>190150</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>185210</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>38576; 41978</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>69668; 71749</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>81457; 83082</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>59011; 68045</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>116339; 118402</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>96234; 103432</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>101494; 109200</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>188066; 190150</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>181076; 186514</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>179348</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>248204</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>278002</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>199089</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>297969</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>272031</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>378438</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>546173</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>550032</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>174150; 182029</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>246124; 248204</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>272229; 280286</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>192939; 202479</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>292854; 299986</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>266853; 273335</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>370497; 383218</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>541796; 548190</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>542808; 552666</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>